--- a/server/resource/excel/template_product_require.xlsx
+++ b/server/resource/excel/template_product_require.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xujun/gva/gin-vue-admin/server/resource/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E574CDA-5B9B-0D4F-A992-1631326AADBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F57957B-03EC-DB47-B03A-7828657F861A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="8720" windowWidth="20660" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6080" yWindow="2120" windowWidth="20660" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="order" sheetId="1" r:id="rId1"/>
+    <sheet name="Product" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <r>
       <t xml:space="preserve">        S&amp;L FOOD TRADING LTD
@@ -67,10 +67,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>SELFLIFE</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>BARCODE(CASE)</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -85,19 +81,34 @@
   <si>
     <t>WEIGHT</t>
     <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>PACKING</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELFLIFE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>QTY</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="9">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ [$€-2]* #,##0.00_ ;_ [$€-2]* \-#,##0.00_ ;_ [$€-2]* &quot;-&quot;??_ "/>
     <numFmt numFmtId="178" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
     <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="180" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="181" formatCode="[$£-809]#,##0.00"/>
+    <numFmt numFmtId="182" formatCode="0.00_ "/>
+    <numFmt numFmtId="183" formatCode="0.0000_ "/>
+    <numFmt numFmtId="184" formatCode="0_ "/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -251,7 +262,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -265,9 +276,6 @@
     <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -286,9 +294,6 @@
     <xf numFmtId="179" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -298,11 +303,41 @@
     <xf numFmtId="179" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="181" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -941,84 +976,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="52.33203125" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="52.33203125" style="1"/>
+    <col min="2" max="2" width="36.33203125" style="3" customWidth="1"/>
+    <col min="3" max="5" width="13" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="52.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="62.25" customHeight="1">
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:11" ht="62.25" customHeight="1">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="16" customHeight="1"/>
-    <row r="3" spans="1:9" ht="30" customHeight="1">
-      <c r="A3" s="7" t="s">
+    <row r="2" spans="1:11" ht="16" customHeight="1"/>
+    <row r="3" spans="1:11" ht="30" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+    <row r="4" spans="1:11" ht="30" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
     </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
+    <row r="5" spans="1:11" ht="30" customHeight="1">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
